--- a/StoryMap_Onyxia.xlsx
+++ b/StoryMap_Onyxia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ademecloud-my.sharepoint.com/personal/liam_durand_ademe_fr/Documents/Bureau/Onyxia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ademecloud-my.sharepoint.com/personal/liam_durand_ademe_fr/Documents/Bureau/Onyxia_ADEME/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="329" documentId="8_{0AE720AD-6A6C-47DC-B215-999E11F3E974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A5A443F-9782-4337-84B9-19636F10B21F}"/>
